--- a/Assets/Data/data2.xlsx
+++ b/Assets/Data/data2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity Project\iThink\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="2" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="454">
   <si>
     <t>ID</t>
   </si>
@@ -1355,12 +1360,39 @@
   </si>
   <si>
     <t>1001101010</t>
+  </si>
+  <si>
+    <t>0101010101</t>
+  </si>
+  <si>
+    <t>0101010011</t>
+  </si>
+  <si>
+    <t>0111001001</t>
+  </si>
+  <si>
+    <t>0110010011</t>
+  </si>
+  <si>
+    <t>0100111001</t>
+  </si>
+  <si>
+    <t>0100100111</t>
+  </si>
+  <si>
+    <t>1011010010</t>
+  </si>
+  <si>
+    <t>0101001101</t>
+  </si>
+  <si>
+    <t>0010111001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1436,7 +1468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1445,16 +1477,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
@@ -1466,10 +1492,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1485,10 +1511,18 @@
           <bgColor rgb="FFFFD700"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFD700"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -1498,9 +1532,17 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFD700"/>
+        </patternFill>
+      </fill>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -1738,26 +1780,6 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFD700"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFD700"/>
-        </patternFill>
-      </fill>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
@@ -1809,22 +1831,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Quiz" displayName="Quiz" ref="A1:M51" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Quiz" displayName="Quiz" ref="A1:M51" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="ID" dataDxfId="12"/>
-    <tableColumn id="2" name="MusicID" dataDxfId="11"/>
-    <tableColumn id="3" name="AnswerKey" dataDxfId="10"/>
-    <tableColumn id="4" name="A1" dataDxfId="9"/>
-    <tableColumn id="5" name="A2" dataDxfId="8"/>
-    <tableColumn id="6" name="A3" dataDxfId="7"/>
-    <tableColumn id="7" name="A4" dataDxfId="6"/>
-    <tableColumn id="8" name="A5" dataDxfId="5"/>
-    <tableColumn id="9" name="A6" dataDxfId="0"/>
-    <tableColumn id="10" name="A7" dataDxfId="1"/>
-    <tableColumn id="11" name="A8" dataDxfId="2"/>
-    <tableColumn id="12" name="A9" dataDxfId="3"/>
-    <tableColumn id="13" name="A10" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MusicID" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="AnswerKey" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="A1" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="A2" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="A3" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="A4" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A5" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="A6" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="A7" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="A8" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="A9" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="A10" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2119,25 +2141,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
@@ -2193,1952 +2215,2052 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>110010101</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>101010101</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
         <v>1001100101</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
         <v>1010101100</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>101010011</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
         <v>1101010010</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>111001001</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
         <v>1010010110</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>110010011</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="8" t="s">
+      <c r="M10" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>101010101</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>100101011</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="5" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
         <v>1011010010</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>101011001</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
         <v>1101001001</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="5" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>100111001</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
         <v>1011001001</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
         <v>1001001101</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="9">
         <v>1100100101</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>100100111</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>101001011</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1011010010</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="5" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>100100111</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="6">
-        <v>101010011</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="5" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6">
-        <v>101001101</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6">
-        <v>10111001</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="5">
         <v>325</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>625</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>512</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>416</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>125</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>729</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>216</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>696</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>143</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="5">
         <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>625</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>169</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>500</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>144</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>123</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>197</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>8</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>225</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>17</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="5">
         <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="5" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="5" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="L30" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="5" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="L31" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="5" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="5" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="L35" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="L36" s="7" t="s">
+      <c r="L36" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="5" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="s">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="L37" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="5" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11" t="s">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="L39" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L40" s="7" t="s">
+      <c r="L40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="5" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11" t="s">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="L41" s="7" t="s">
+      <c r="L41" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="5" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11" t="s">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="L44" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="M44" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="L45" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M45" s="5" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11" t="s">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="L46" s="7" t="s">
+      <c r="L46" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="M46" s="7" t="s">
+      <c r="M46" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L47" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M47" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11" t="s">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" s="5" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11" t="s">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="L49" s="7" t="s">
+      <c r="L49" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="M49" s="7" t="s">
+      <c r="M49" s="5" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11" t="s">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11" t="s">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I51" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="7" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4156,7 +4278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
